--- a/data/rankings.xlsx
+++ b/data/rankings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="343">
   <si>
     <t>Rank</t>
   </si>
@@ -97,409 +97,952 @@
     <t>17</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>315G</t>
+  </si>
+  <si>
+    <t>315X</t>
+  </si>
+  <si>
+    <t>8000A</t>
+  </si>
+  <si>
+    <t>315J</t>
+  </si>
+  <si>
+    <t>5327B</t>
+  </si>
+  <si>
+    <t>5776T</t>
+  </si>
+  <si>
+    <t>2456A</t>
+  </si>
+  <si>
+    <t>12180B</t>
+  </si>
+  <si>
+    <t>93063A</t>
+  </si>
+  <si>
+    <t>95692H</t>
+  </si>
+  <si>
+    <t>687B</t>
+  </si>
+  <si>
+    <t>824M</t>
+  </si>
+  <si>
+    <t>98294A</t>
+  </si>
+  <si>
+    <t>824C</t>
+  </si>
+  <si>
+    <t>1666R</t>
+  </si>
+  <si>
+    <t>8000C</t>
+  </si>
+  <si>
+    <t>824Z</t>
+  </si>
+  <si>
+    <t>22095A</t>
+  </si>
+  <si>
+    <t>6460A</t>
+  </si>
+  <si>
     <t>7579E</t>
   </si>
   <si>
+    <t>5327A</t>
+  </si>
+  <si>
+    <t>254C</t>
+  </si>
+  <si>
     <t>824N</t>
   </si>
   <si>
-    <t>5327B</t>
+    <t>5776A</t>
+  </si>
+  <si>
+    <t>8583A</t>
+  </si>
+  <si>
+    <t>9328Z</t>
+  </si>
+  <si>
+    <t>2808K</t>
+  </si>
+  <si>
+    <t>3948A</t>
+  </si>
+  <si>
+    <t>5327C</t>
+  </si>
+  <si>
+    <t>84025B</t>
+  </si>
+  <si>
+    <t>8000B</t>
+  </si>
+  <si>
+    <t>5776E</t>
   </si>
   <si>
     <t>2059A</t>
   </si>
   <si>
-    <t>824Z</t>
-  </si>
-  <si>
-    <t>1516B</t>
-  </si>
-  <si>
-    <t>6649A</t>
-  </si>
-  <si>
-    <t>8583A</t>
-  </si>
-  <si>
-    <t>2808K</t>
-  </si>
-  <si>
-    <t>13131A</t>
-  </si>
-  <si>
-    <t>824K</t>
-  </si>
-  <si>
-    <t>2808V</t>
-  </si>
-  <si>
-    <t>98188A</t>
-  </si>
-  <si>
-    <t>8583B</t>
-  </si>
-  <si>
-    <t>1516A</t>
-  </si>
-  <si>
-    <t>98188B</t>
-  </si>
-  <si>
-    <t>824M</t>
+    <t>84025A</t>
+  </si>
+  <si>
+    <t>95692J</t>
+  </si>
+  <si>
+    <t>824H</t>
+  </si>
+  <si>
+    <t>21246B</t>
+  </si>
+  <si>
+    <t>6526E</t>
+  </si>
+  <si>
+    <t>15151A</t>
+  </si>
+  <si>
+    <t>21A</t>
+  </si>
+  <si>
+    <t>315Z</t>
+  </si>
+  <si>
+    <t>51302A</t>
+  </si>
+  <si>
+    <t>254A</t>
+  </si>
+  <si>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <t>HRS Robohawks</t>
+  </si>
+  <si>
+    <t>Gael Force B</t>
+  </si>
+  <si>
+    <t>DVHS Robotics</t>
+  </si>
+  <si>
+    <t>Marin Robotics 2456A</t>
+  </si>
+  <si>
+    <t>HiTek</t>
+  </si>
+  <si>
+    <t>Simi Tech Robotics</t>
+  </si>
+  <si>
+    <t>Pirate Robotics</t>
+  </si>
+  <si>
+    <t>Nerd Herd B</t>
+  </si>
+  <si>
+    <t>AHS Robotics</t>
+  </si>
+  <si>
+    <t>Sierra Academy Robotics</t>
+  </si>
+  <si>
+    <t>Renegade Robotics</t>
+  </si>
+  <si>
+    <t>Parzival</t>
+  </si>
+  <si>
+    <t>RoboWarriors</t>
   </si>
   <si>
     <t>DYNObytes E</t>
   </si>
   <si>
-    <t>AHS Robotics</t>
-  </si>
-  <si>
-    <t>Gael Force B</t>
+    <t>Gael Force A</t>
+  </si>
+  <si>
+    <t>The Cheesy Poofs</t>
+  </si>
+  <si>
+    <t>Folsom Techno Squad</t>
+  </si>
+  <si>
+    <t>Shasta Robots</t>
+  </si>
+  <si>
+    <t>Folsom Tech-Know-Logic</t>
+  </si>
+  <si>
+    <t>Valley Girls</t>
+  </si>
+  <si>
+    <t>Gael Force C</t>
+  </si>
+  <si>
+    <t>Robotic Blazers</t>
   </si>
   <si>
     <t>Matadors</t>
   </si>
   <si>
-    <t>Fighting Grizzles</t>
-  </si>
-  <si>
-    <t>Positronics</t>
-  </si>
-  <si>
-    <t>Folsom Techno Squad</t>
-  </si>
-  <si>
-    <t>Folsom Tech-Know-Logic</t>
-  </si>
-  <si>
-    <t>DivideByZero</t>
-  </si>
-  <si>
-    <t>Tech-no-logic</t>
-  </si>
-  <si>
-    <t>Fighting Grizzlies</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>26 / 80 / 429</t>
-  </si>
-  <si>
-    <t>26 / 30 / 457</t>
-  </si>
-  <si>
-    <t>22 / 40 / 439</t>
-  </si>
-  <si>
-    <t>18 / 10 / 390</t>
-  </si>
-  <si>
-    <t>18 / 0 / 342</t>
-  </si>
-  <si>
-    <t>16 / 10 / 375</t>
-  </si>
-  <si>
-    <t>16 / 0 / 287</t>
-  </si>
-  <si>
-    <t>14 / 40 / 341</t>
-  </si>
-  <si>
-    <t>14 / 30 / 399</t>
-  </si>
-  <si>
-    <t>12 / 30 / 247</t>
-  </si>
-  <si>
-    <t>12 / 10 / 310</t>
-  </si>
-  <si>
-    <t>10 / 30 / 289</t>
-  </si>
-  <si>
-    <t>10 / 20 / 385</t>
-  </si>
-  <si>
-    <t>8 / 50 / 320</t>
-  </si>
-  <si>
-    <t>8 / 10 / 279</t>
-  </si>
-  <si>
-    <t>6 / 0 / 238</t>
-  </si>
-  <si>
-    <t>4 / 10 / 196</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>105</t>
+    <t>Dublin Robotics-Stackers</t>
+  </si>
+  <si>
+    <t>Damien Spartan Robotics</t>
+  </si>
+  <si>
+    <t>Florin Ro-Botics</t>
+  </si>
+  <si>
+    <t>SPUR-FLYS</t>
+  </si>
+  <si>
+    <t>Ranch Robotics</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>4-2-1</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>3-3-1</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>1-5-1</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>14 / 50 / 488</t>
+  </si>
+  <si>
+    <t>14 / 40 / 374</t>
+  </si>
+  <si>
+    <t>12 / 50 / 444</t>
+  </si>
+  <si>
+    <t>12 / 50 / 435</t>
+  </si>
+  <si>
+    <t>12 / 40 / 405</t>
+  </si>
+  <si>
+    <t>12 / 40 / 398</t>
+  </si>
+  <si>
+    <t>10 / 60 / 367</t>
+  </si>
+  <si>
+    <t>10 / 50 / 432</t>
+  </si>
+  <si>
+    <t>10 / 50 / 329</t>
+  </si>
+  <si>
+    <t>10 / 40 / 414</t>
+  </si>
+  <si>
+    <t>10 / 20 / 522</t>
+  </si>
+  <si>
+    <t>9 / 10 / 367</t>
+  </si>
+  <si>
+    <t>8 / 50 / 411</t>
+  </si>
+  <si>
+    <t>8 / 40 / 447</t>
+  </si>
+  <si>
+    <t>8 / 40 / 442</t>
+  </si>
+  <si>
+    <t>8 / 40 / 292</t>
+  </si>
+  <si>
+    <t>8 / 30 / 318</t>
+  </si>
+  <si>
+    <t>8 / 30 / 284</t>
+  </si>
+  <si>
+    <t>8 / 30 / 253</t>
+  </si>
+  <si>
+    <t>8 / 20 / 444</t>
+  </si>
+  <si>
+    <t>8 / 20 / 392</t>
+  </si>
+  <si>
+    <t>8 / 20 / 365</t>
+  </si>
+  <si>
+    <t>8 / 0 / 310</t>
+  </si>
+  <si>
+    <t>7 / 40 / 430</t>
+  </si>
+  <si>
+    <t>6 / 50 / 338</t>
+  </si>
+  <si>
+    <t>6 / 40 / 480</t>
+  </si>
+  <si>
+    <t>6 / 40 / 405</t>
+  </si>
+  <si>
+    <t>6 / 40 / 341</t>
+  </si>
+  <si>
+    <t>6 / 40 / 269</t>
+  </si>
+  <si>
+    <t>6 / 30 / 380</t>
+  </si>
+  <si>
+    <t>6 / 30 / 374</t>
+  </si>
+  <si>
+    <t>6 / 20 / 403</t>
+  </si>
+  <si>
+    <t>4 / 40 / 397</t>
+  </si>
+  <si>
+    <t>4 / 20 / 335</t>
+  </si>
+  <si>
+    <t>3 / 10 / 324</t>
+  </si>
+  <si>
+    <t>2 / 30 / 318</t>
+  </si>
+  <si>
+    <t>2 / 10 / 355</t>
+  </si>
+  <si>
+    <t>2 / 10 / 330</t>
+  </si>
+  <si>
+    <t>2 / 10 / 250</t>
+  </si>
+  <si>
+    <t>0 / 30 / 360</t>
+  </si>
+  <si>
+    <t>0 / 20 / 447</t>
+  </si>
+  <si>
+    <t>0 / 10 / 379</t>
+  </si>
+  <si>
+    <t>0 / 10 / 352</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>50.2</t>
-  </si>
-  <si>
-    <t>46.95</t>
-  </si>
-  <si>
-    <t>47.05</t>
-  </si>
-  <si>
-    <t>25.44</t>
-  </si>
-  <si>
-    <t>21.67</t>
-  </si>
-  <si>
-    <t>14.09</t>
-  </si>
-  <si>
-    <t>11.71</t>
-  </si>
-  <si>
-    <t>20.36</t>
-  </si>
-  <si>
-    <t>25.37</t>
-  </si>
-  <si>
-    <t>7.57</t>
-  </si>
-  <si>
-    <t>12.05</t>
-  </si>
-  <si>
-    <t>12.57</t>
-  </si>
-  <si>
-    <t>8.53</t>
-  </si>
-  <si>
-    <t>15.21</t>
-  </si>
-  <si>
-    <t>9.05</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>11.22</t>
-  </si>
-  <si>
-    <t>16.83</t>
-  </si>
-  <si>
-    <t>14.46</t>
-  </si>
-  <si>
-    <t>18.67</t>
-  </si>
-  <si>
-    <t>10.64</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>15.04</t>
-  </si>
-  <si>
-    <t>24.59</t>
-  </si>
-  <si>
-    <t>26.92</t>
-  </si>
-  <si>
-    <t>9.51</t>
-  </si>
-  <si>
-    <t>24.02</t>
-  </si>
-  <si>
-    <t>21.91</t>
-  </si>
-  <si>
-    <t>22.18</t>
-  </si>
-  <si>
-    <t>16.64</t>
-  </si>
-  <si>
-    <t>24.53</t>
-  </si>
-  <si>
-    <t>32.43</t>
-  </si>
-  <si>
-    <t>23.9</t>
-  </si>
-  <si>
-    <t>38.98</t>
-  </si>
-  <si>
-    <t>30.13</t>
-  </si>
-  <si>
-    <t>32.58</t>
-  </si>
-  <si>
-    <t>6.78</t>
-  </si>
-  <si>
-    <t>11.02</t>
-  </si>
-  <si>
-    <t>-3.11</t>
-  </si>
-  <si>
-    <t>-3.32</t>
-  </si>
-  <si>
-    <t>-4.24</t>
-  </si>
-  <si>
-    <t>-1.55</t>
-  </si>
-  <si>
-    <t>-1.94</t>
-  </si>
-  <si>
-    <t>-11.97</t>
-  </si>
-  <si>
-    <t>-9.34</t>
-  </si>
-  <si>
-    <t>-13.65</t>
-  </si>
-  <si>
-    <t>-1.44</t>
-  </si>
-  <si>
-    <t>-15.48</t>
-  </si>
-  <si>
-    <t>-29.82</t>
-  </si>
-  <si>
-    <t>-21.3</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>83.73</t>
+  </si>
+  <si>
+    <t>72.25</t>
+  </si>
+  <si>
+    <t>52.75</t>
+  </si>
+  <si>
+    <t>58.83</t>
+  </si>
+  <si>
+    <t>50.26</t>
+  </si>
+  <si>
+    <t>53.72</t>
+  </si>
+  <si>
+    <t>40.19</t>
+  </si>
+  <si>
+    <t>44.18</t>
+  </si>
+  <si>
+    <t>45.53</t>
+  </si>
+  <si>
+    <t>45.96</t>
+  </si>
+  <si>
+    <t>51.14</t>
+  </si>
+  <si>
+    <t>38.78</t>
+  </si>
+  <si>
+    <t>43.04</t>
+  </si>
+  <si>
+    <t>45.12</t>
+  </si>
+  <si>
+    <t>53.93</t>
+  </si>
+  <si>
+    <t>29.85</t>
+  </si>
+  <si>
+    <t>40.79</t>
+  </si>
+  <si>
+    <t>34.35</t>
+  </si>
+  <si>
+    <t>40.38</t>
+  </si>
+  <si>
+    <t>40.66</t>
+  </si>
+  <si>
+    <t>51.79</t>
+  </si>
+  <si>
+    <t>37.78</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>47.93</t>
+  </si>
+  <si>
+    <t>33.11</t>
+  </si>
+  <si>
+    <t>39.58</t>
+  </si>
+  <si>
+    <t>29.53</t>
+  </si>
+  <si>
+    <t>31.14</t>
+  </si>
+  <si>
+    <t>49.82</t>
+  </si>
+  <si>
+    <t>38.26</t>
+  </si>
+  <si>
+    <t>24.01</t>
+  </si>
+  <si>
+    <t>23.18</t>
+  </si>
+  <si>
+    <t>26.12</t>
+  </si>
+  <si>
+    <t>23.11</t>
+  </si>
+  <si>
+    <t>13.15</t>
+  </si>
+  <si>
+    <t>15.42</t>
+  </si>
+  <si>
+    <t>18.88</t>
+  </si>
+  <si>
+    <t>18.16</t>
+  </si>
+  <si>
+    <t>9.81</t>
+  </si>
+  <si>
+    <t>28.72</t>
+  </si>
+  <si>
+    <t>31.22</t>
+  </si>
+  <si>
+    <t>16.53</t>
+  </si>
+  <si>
+    <t>11.98</t>
+  </si>
+  <si>
+    <t>37.72</t>
+  </si>
+  <si>
+    <t>18.03</t>
+  </si>
+  <si>
+    <t>31.89</t>
+  </si>
+  <si>
+    <t>23.45</t>
+  </si>
+  <si>
+    <t>24.72</t>
+  </si>
+  <si>
+    <t>31.44</t>
+  </si>
+  <si>
+    <t>43.57</t>
+  </si>
+  <si>
+    <t>24.29</t>
+  </si>
+  <si>
+    <t>39.45</t>
+  </si>
+  <si>
+    <t>47.17</t>
+  </si>
+  <si>
+    <t>27.88</t>
+  </si>
+  <si>
+    <t>34.76</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>38.57</t>
+  </si>
+  <si>
+    <t>25.7</t>
+  </si>
+  <si>
+    <t>30.76</t>
+  </si>
+  <si>
+    <t>24.69</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>30.42</t>
+  </si>
+  <si>
+    <t>34.84</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>31.09</t>
+  </si>
+  <si>
+    <t>30.56</t>
+  </si>
+  <si>
+    <t>23.97</t>
+  </si>
+  <si>
+    <t>44.13</t>
+  </si>
+  <si>
+    <t>51.93</t>
+  </si>
+  <si>
+    <t>42.59</t>
+  </si>
+  <si>
+    <t>25.74</t>
+  </si>
+  <si>
+    <t>35.82</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>48.21</t>
+  </si>
+  <si>
+    <t>46.17</t>
+  </si>
+  <si>
+    <t>48.62</t>
+  </si>
+  <si>
+    <t>64.25</t>
+  </si>
+  <si>
+    <t>54.65</t>
+  </si>
+  <si>
+    <t>41.4</t>
+  </si>
+  <si>
+    <t>48.25</t>
+  </si>
+  <si>
+    <t>41.83</t>
+  </si>
+  <si>
+    <t>67.96</t>
+  </si>
+  <si>
+    <t>55.57</t>
+  </si>
+  <si>
+    <t>43.82</t>
+  </si>
+  <si>
+    <t>46.01</t>
+  </si>
+  <si>
+    <t>54.23</t>
+  </si>
+  <si>
+    <t>20.86</t>
+  </si>
+  <si>
+    <t>21.83</t>
+  </si>
+  <si>
+    <t>26.81</t>
+  </si>
+  <si>
+    <t>28.99</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>21.24</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>8.28</t>
+  </si>
+  <si>
+    <t>9.41</t>
+  </si>
+  <si>
+    <t>15.36</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>9.66</t>
+  </si>
+  <si>
+    <t>26.36</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>16.95</t>
+  </si>
+  <si>
+    <t>-10.89</t>
+  </si>
+  <si>
+    <t>17.37</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>-4.55</t>
+  </si>
+  <si>
+    <t>-22.4</t>
+  </si>
+  <si>
+    <t>-11.45</t>
+  </si>
+  <si>
+    <t>24.08</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>-12.7</t>
+  </si>
+  <si>
+    <t>-25.03</t>
+  </si>
+  <si>
+    <t>-20.05</t>
+  </si>
+  <si>
+    <t>-25.51</t>
+  </si>
+  <si>
+    <t>-51.1</t>
+  </si>
+  <si>
+    <t>-39.23</t>
+  </si>
+  <si>
+    <t>-22.53</t>
+  </si>
+  <si>
+    <t>-27.37</t>
+  </si>
+  <si>
+    <t>-38.44</t>
+  </si>
+  <si>
+    <t>-13.12</t>
+  </si>
+  <si>
+    <t>-36.74</t>
+  </si>
+  <si>
+    <t>-39.03</t>
+  </si>
+  <si>
+    <t>-31.83</t>
   </si>
 </sst>
 </file>
@@ -857,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,31 +1446,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -938,31 +1481,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -973,31 +1516,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1008,31 +1551,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>99</v>
-      </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>148</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1043,31 +1586,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1078,31 +1621,31 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="K7" t="s">
-        <v>150</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1113,31 +1656,31 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1148,31 +1691,31 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1183,31 +1726,31 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1218,31 +1761,31 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1253,31 +1796,31 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="K12" t="s">
-        <v>155</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1288,31 +1831,31 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1323,31 +1866,31 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1358,31 +1901,31 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1393,31 +1936,31 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1428,31 +1971,31 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1463,31 +2006,941 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>233</v>
+      </c>
+      <c r="J18" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>236</v>
+      </c>
+      <c r="J21" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>237</v>
+      </c>
+      <c r="J22" t="s">
+        <v>279</v>
+      </c>
+      <c r="K22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" t="s">
+        <v>280</v>
+      </c>
+      <c r="K23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>281</v>
+      </c>
+      <c r="K24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>283</v>
+      </c>
+      <c r="K26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>284</v>
+      </c>
+      <c r="K27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>285</v>
+      </c>
+      <c r="K28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" t="s">
+        <v>286</v>
+      </c>
+      <c r="K29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" t="s">
+        <v>291</v>
+      </c>
+      <c r="K34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" t="s">
+        <v>252</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" t="s">
+        <v>200</v>
+      </c>
+      <c r="H38" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" t="s">
+        <v>225</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" t="s">
+        <v>256</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="H18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" t="s">
-        <v>161</v>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s">
+        <v>259</v>
+      </c>
+      <c r="J44" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
